--- a/Jogos_do_Dia/2024-04-29_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-29_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="145">
   <si>
     <t>League</t>
   </si>
@@ -154,24 +154,24 @@
     <t>Slovenia PrvaLiga</t>
   </si>
   <si>
+    <t>Egypt Egyptian Premier League</t>
+  </si>
+  <si>
+    <t>Poland Ekstraklasa</t>
+  </si>
+  <si>
+    <t>Turkey Süper Lig</t>
+  </si>
+  <si>
+    <t>Sweden Allsvenskan</t>
+  </si>
+  <si>
+    <t>Sweden Superettan</t>
+  </si>
+  <si>
     <t>Denmark Superliga</t>
   </si>
   <si>
-    <t>Egypt Egyptian Premier League</t>
-  </si>
-  <si>
-    <t>Sweden Superettan</t>
-  </si>
-  <si>
-    <t>Sweden Allsvenskan</t>
-  </si>
-  <si>
-    <t>Turkey Süper Lig</t>
-  </si>
-  <si>
-    <t>Poland Ekstraklasa</t>
-  </si>
-  <si>
     <t>Netherlands Eerste Divisie</t>
   </si>
   <si>
@@ -211,6 +211,9 @@
     <t>Paraguay Division Profesional</t>
   </si>
   <si>
+    <t>Chile Primera División</t>
+  </si>
+  <si>
     <t>11:30:00</t>
   </si>
   <si>
@@ -220,6 +223,9 @@
     <t>12:30:00</t>
   </si>
   <si>
+    <t>13:00:00</t>
+  </si>
+  <si>
     <t>14:00:00</t>
   </si>
   <si>
@@ -256,6 +262,9 @@
     <t>20:30:00</t>
   </si>
   <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
     <t>Petrolul 52</t>
   </si>
   <si>
@@ -265,30 +274,30 @@
     <t>Mura</t>
   </si>
   <si>
+    <t>Ceramica Cleopatra</t>
+  </si>
+  <si>
+    <t>Puszcza Niepołomice</t>
+  </si>
+  <si>
+    <t>Fatih Karagümrük</t>
+  </si>
+  <si>
+    <t>Elfsborg</t>
+  </si>
+  <si>
+    <t>Mjällby</t>
+  </si>
+  <si>
+    <t>Brommapojkarna</t>
+  </si>
+  <si>
+    <t>Trelleborg</t>
+  </si>
+  <si>
     <t>Silkeborg</t>
   </si>
   <si>
-    <t>Ceramica Cleopatra</t>
-  </si>
-  <si>
-    <t>Trelleborg</t>
-  </si>
-  <si>
-    <t>Mjällby</t>
-  </si>
-  <si>
-    <t>Fatih Karagümrük</t>
-  </si>
-  <si>
-    <t>Elfsborg</t>
-  </si>
-  <si>
-    <t>Brommapojkarna</t>
-  </si>
-  <si>
-    <t>Puszcza Niepołomice</t>
-  </si>
-  <si>
     <t>Hammarby</t>
   </si>
   <si>
@@ -298,12 +307,12 @@
     <t>Rapid Bucureşti</t>
   </si>
   <si>
+    <t>Emmen</t>
+  </si>
+  <si>
     <t>Utrecht II</t>
   </si>
   <si>
-    <t>Emmen</t>
-  </si>
-  <si>
     <t>Valur</t>
   </si>
   <si>
@@ -337,15 +346,18 @@
     <t>Mirassol</t>
   </si>
   <si>
+    <t>Peñarol</t>
+  </si>
+  <si>
     <t>São Paulo</t>
   </si>
   <si>
-    <t>Peñarol</t>
-  </si>
-  <si>
     <t>Olimpia</t>
   </si>
   <si>
+    <t>Audax Italiano</t>
+  </si>
+  <si>
     <t>Botoşani</t>
   </si>
   <si>
@@ -355,30 +367,30 @@
     <t>Aluminij</t>
   </si>
   <si>
+    <t>Pharco</t>
+  </si>
+  <si>
+    <t>Korona Kielce</t>
+  </si>
+  <si>
+    <t>Antalyaspor</t>
+  </si>
+  <si>
+    <t>Sirius</t>
+  </si>
+  <si>
+    <t>Kalmar</t>
+  </si>
+  <si>
+    <t>IFK Göteborg</t>
+  </si>
+  <si>
+    <t>Degerfors</t>
+  </si>
+  <si>
     <t>Midtjylland</t>
   </si>
   <si>
-    <t>Pharco</t>
-  </si>
-  <si>
-    <t>Degerfors</t>
-  </si>
-  <si>
-    <t>Kalmar</t>
-  </si>
-  <si>
-    <t>Antalyaspor</t>
-  </si>
-  <si>
-    <t>Sirius</t>
-  </si>
-  <si>
-    <t>IFK Göteborg</t>
-  </si>
-  <si>
-    <t>Korona Kielce</t>
-  </si>
-  <si>
     <t>Västerås SK</t>
   </si>
   <si>
@@ -388,12 +400,12 @@
     <t>CS U Craiova</t>
   </si>
   <si>
+    <t>Helmond Sport</t>
+  </si>
+  <si>
     <t>ADO Den Haag</t>
   </si>
   <si>
-    <t>Helmond Sport</t>
-  </si>
-  <si>
     <t>Fram</t>
   </si>
   <si>
@@ -427,13 +439,16 @@
     <t>Ceará</t>
   </si>
   <si>
+    <t>River Plate</t>
+  </si>
+  <si>
     <t>Palmeiras</t>
   </si>
   <si>
-    <t>River Plate</t>
-  </si>
-  <si>
     <t>Sportivo Ameliano</t>
+  </si>
+  <si>
+    <t>Cobresal</t>
   </si>
 </sst>
 </file>
@@ -795,7 +810,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ31"/>
+  <dimension ref="A1:AQ32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -940,16 +955,16 @@
         <v>45411</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D2">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G2">
         <v>2.58</v>
@@ -961,13 +976,13 @@
         <v>4.45</v>
       </c>
       <c r="J2">
-        <v>1.98</v>
+        <v>2.09</v>
       </c>
       <c r="K2">
-        <v>3.39</v>
+        <v>3.15</v>
       </c>
       <c r="L2">
-        <v>3.56</v>
+        <v>3.1</v>
       </c>
       <c r="M2">
         <v>1.46</v>
@@ -988,10 +1003,10 @@
         <v>2.79</v>
       </c>
       <c r="S2">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="T2">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="U2">
         <v>1.93</v>
@@ -1071,16 +1086,16 @@
         <v>45411</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G3">
         <v>2.88</v>
@@ -1092,13 +1107,13 @@
         <v>4</v>
       </c>
       <c r="J3">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
       <c r="K3">
-        <v>3.28</v>
+        <v>3.15</v>
       </c>
       <c r="L3">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="M3">
         <v>1.45</v>
@@ -1119,10 +1134,10 @@
         <v>2.98</v>
       </c>
       <c r="S3">
-        <v>2.15</v>
+        <v>2.16</v>
       </c>
       <c r="T3">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U3">
         <v>1.92</v>
@@ -1202,16 +1217,16 @@
         <v>45411</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D4">
         <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G4">
         <v>2.5</v>
@@ -1223,13 +1238,13 @@
         <v>4</v>
       </c>
       <c r="J4">
-        <v>2.28</v>
+        <v>1.91</v>
       </c>
       <c r="K4">
-        <v>3.37</v>
+        <v>3.5</v>
       </c>
       <c r="L4">
-        <v>2.89</v>
+        <v>3.7</v>
       </c>
       <c r="M4">
         <v>1.36</v>
@@ -1250,10 +1265,10 @@
         <v>3.5</v>
       </c>
       <c r="S4">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="T4">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="U4">
         <v>1.73</v>
@@ -1333,127 +1348,127 @@
         <v>45411</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F5" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G5">
-        <v>4.33</v>
+        <v>2.4</v>
       </c>
       <c r="H5">
+        <v>2.05</v>
+      </c>
+      <c r="I5">
+        <v>4.75</v>
+      </c>
+      <c r="J5">
+        <v>1.78</v>
+      </c>
+      <c r="K5">
+        <v>3.4</v>
+      </c>
+      <c r="L5">
+        <v>4.5</v>
+      </c>
+      <c r="M5">
+        <v>1.44</v>
+      </c>
+      <c r="N5">
+        <v>2.66</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>8</v>
+      </c>
+      <c r="Q5">
+        <v>1.33</v>
+      </c>
+      <c r="R5">
+        <v>2.91</v>
+      </c>
+      <c r="S5">
+        <v>2.15</v>
+      </c>
+      <c r="T5">
+        <v>1.66</v>
+      </c>
+      <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5">
+        <v>1.73</v>
+      </c>
+      <c r="W5">
+        <v>1.18</v>
+      </c>
+      <c r="X5">
+        <v>1.26</v>
+      </c>
+      <c r="Y5">
+        <v>1.91</v>
+      </c>
+      <c r="Z5">
+        <v>1.88</v>
+      </c>
+      <c r="AA5">
+        <v>0.67</v>
+      </c>
+      <c r="AB5">
+        <v>1.69</v>
+      </c>
+      <c r="AC5">
+        <v>1.31</v>
+      </c>
+      <c r="AD5">
+        <v>3</v>
+      </c>
+      <c r="AE5">
+        <v>1.49</v>
+      </c>
+      <c r="AF5">
+        <v>9</v>
+      </c>
+      <c r="AG5">
+        <v>2.98</v>
+      </c>
+      <c r="AH5">
+        <v>1.24</v>
+      </c>
+      <c r="AI5">
+        <v>3.48</v>
+      </c>
+      <c r="AJ5">
+        <v>1.45</v>
+      </c>
+      <c r="AK5">
+        <v>2.48</v>
+      </c>
+      <c r="AL5">
+        <v>1.79</v>
+      </c>
+      <c r="AM5">
+        <v>1.87</v>
+      </c>
+      <c r="AN5">
         <v>2.3</v>
       </c>
-      <c r="I5">
-        <v>2.4</v>
-      </c>
-      <c r="J5">
-        <v>3.6</v>
-      </c>
-      <c r="K5">
-        <v>3.6</v>
-      </c>
-      <c r="L5">
-        <v>1.8</v>
-      </c>
-      <c r="M5">
-        <v>1.33</v>
-      </c>
-      <c r="N5">
-        <v>3.25</v>
-      </c>
-      <c r="O5">
-        <v>1.04</v>
-      </c>
-      <c r="P5">
-        <v>14.25</v>
-      </c>
-      <c r="Q5">
-        <v>1.24</v>
-      </c>
-      <c r="R5">
-        <v>4.07</v>
-      </c>
-      <c r="S5">
-        <v>1.73</v>
-      </c>
-      <c r="T5">
-        <v>2</v>
-      </c>
-      <c r="U5">
-        <v>1.7</v>
-      </c>
-      <c r="V5">
-        <v>2.05</v>
-      </c>
-      <c r="W5">
-        <v>2</v>
-      </c>
-      <c r="X5">
-        <v>1.22</v>
-      </c>
-      <c r="Y5">
-        <v>1.24</v>
-      </c>
-      <c r="Z5">
-        <v>1.38</v>
-      </c>
-      <c r="AA5">
-        <v>1.92</v>
-      </c>
-      <c r="AB5">
-        <v>1.44</v>
-      </c>
-      <c r="AC5">
-        <v>1.49</v>
-      </c>
-      <c r="AD5">
-        <v>2.93</v>
-      </c>
-      <c r="AE5">
-        <v>2.8</v>
-      </c>
-      <c r="AF5">
-        <v>8</v>
-      </c>
-      <c r="AG5">
-        <v>1.59</v>
-      </c>
-      <c r="AH5">
-        <v>1.29</v>
-      </c>
-      <c r="AI5">
-        <v>3.2</v>
-      </c>
-      <c r="AJ5">
-        <v>1.54</v>
-      </c>
-      <c r="AK5">
-        <v>2.3</v>
-      </c>
-      <c r="AL5">
-        <v>1.95</v>
-      </c>
-      <c r="AM5">
-        <v>1.77</v>
-      </c>
-      <c r="AN5">
-        <v>2.5</v>
-      </c>
       <c r="AO5">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AP5">
-        <v>3.4</v>
+        <v>3.08</v>
       </c>
       <c r="AQ5">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="6" spans="1:43">
@@ -1464,127 +1479,127 @@
         <v>45411</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F6" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G6">
-        <v>2.4</v>
+        <v>3.55</v>
       </c>
       <c r="H6">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="I6">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="J6">
-        <v>1.75</v>
+        <v>2.72</v>
       </c>
       <c r="K6">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L6">
-        <v>4.33</v>
+        <v>2.53</v>
       </c>
       <c r="M6">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="N6">
-        <v>2.66</v>
+        <v>2.5</v>
       </c>
       <c r="O6">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="P6">
         <v>8</v>
       </c>
       <c r="Q6">
+        <v>1.38</v>
+      </c>
+      <c r="R6">
+        <v>2.9</v>
+      </c>
+      <c r="S6">
+        <v>2.05</v>
+      </c>
+      <c r="T6">
+        <v>1.61</v>
+      </c>
+      <c r="U6">
+        <v>1.85</v>
+      </c>
+      <c r="V6">
+        <v>1.85</v>
+      </c>
+      <c r="W6">
+        <v>1.53</v>
+      </c>
+      <c r="X6">
+        <v>1.28</v>
+      </c>
+      <c r="Y6">
+        <v>1.38</v>
+      </c>
+      <c r="Z6">
+        <v>1.57</v>
+      </c>
+      <c r="AA6">
+        <v>0.57</v>
+      </c>
+      <c r="AB6">
+        <v>1.3</v>
+      </c>
+      <c r="AC6">
         <v>1.33</v>
       </c>
-      <c r="R6">
-        <v>2.91</v>
-      </c>
-      <c r="S6">
-        <v>2.15</v>
-      </c>
-      <c r="T6">
-        <v>1.67</v>
-      </c>
-      <c r="U6">
+      <c r="AD6">
+        <v>2.63</v>
+      </c>
+      <c r="AE6">
+        <v>2.33</v>
+      </c>
+      <c r="AF6">
+        <v>8</v>
+      </c>
+      <c r="AG6">
+        <v>1.82</v>
+      </c>
+      <c r="AH6">
+        <v>1.22</v>
+      </c>
+      <c r="AI6">
+        <v>3.55</v>
+      </c>
+      <c r="AJ6">
+        <v>1.42</v>
+      </c>
+      <c r="AK6">
+        <v>2.5</v>
+      </c>
+      <c r="AL6">
+        <v>1.73</v>
+      </c>
+      <c r="AM6">
         <v>2</v>
       </c>
-      <c r="V6">
-        <v>1.73</v>
-      </c>
-      <c r="W6">
-        <v>1.18</v>
-      </c>
-      <c r="X6">
-        <v>1.26</v>
-      </c>
-      <c r="Y6">
-        <v>1.91</v>
-      </c>
-      <c r="Z6">
-        <v>1.88</v>
-      </c>
-      <c r="AA6">
-        <v>0.67</v>
-      </c>
-      <c r="AB6">
-        <v>1.69</v>
-      </c>
-      <c r="AC6">
-        <v>1.31</v>
-      </c>
-      <c r="AD6">
-        <v>3</v>
-      </c>
-      <c r="AE6">
-        <v>1.49</v>
-      </c>
-      <c r="AF6">
-        <v>9</v>
-      </c>
-      <c r="AG6">
-        <v>2.98</v>
-      </c>
-      <c r="AH6">
-        <v>1.24</v>
-      </c>
-      <c r="AI6">
-        <v>3.48</v>
-      </c>
-      <c r="AJ6">
-        <v>1.45</v>
-      </c>
-      <c r="AK6">
-        <v>2.48</v>
-      </c>
-      <c r="AL6">
-        <v>1.79</v>
-      </c>
-      <c r="AM6">
-        <v>1.87</v>
-      </c>
       <c r="AN6">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="AO6">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="AP6">
-        <v>3.08</v>
+        <v>2.95</v>
       </c>
       <c r="AQ6">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="7" spans="1:43">
@@ -1595,73 +1610,73 @@
         <v>45411</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G7">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="H7">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="I7">
-        <v>2.88</v>
+        <v>3.7</v>
       </c>
       <c r="J7">
-        <v>3.14</v>
+        <v>2.02</v>
       </c>
       <c r="K7">
-        <v>3.44</v>
+        <v>3.45</v>
       </c>
       <c r="L7">
-        <v>2.19</v>
+        <v>3.6</v>
       </c>
       <c r="M7">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="N7">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O7">
         <v>1.01</v>
       </c>
       <c r="P7">
-        <v>9.199999999999999</v>
+        <v>11.75</v>
       </c>
       <c r="Q7">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="R7">
-        <v>3.34</v>
+        <v>3.67</v>
       </c>
       <c r="S7">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="T7">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="U7">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W7">
-        <v>1.62</v>
+        <v>1.35</v>
       </c>
       <c r="X7">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="Y7">
-        <v>1.35</v>
+        <v>1.65</v>
       </c>
       <c r="Z7">
         <v>1.5</v>
@@ -1670,52 +1685,52 @@
         <v>1</v>
       </c>
       <c r="AB7">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="AC7">
-        <v>1.53</v>
+        <v>1.26</v>
       </c>
       <c r="AD7">
-        <v>3.23</v>
+        <v>2.56</v>
       </c>
       <c r="AE7">
-        <v>2.39</v>
+        <v>1.91</v>
       </c>
       <c r="AF7">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG7">
-        <v>1.82</v>
+        <v>2.1</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AJ7">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="AK7">
         <v>2.9</v>
       </c>
       <c r="AL7">
-        <v>1.57</v>
+        <v>1.9</v>
       </c>
       <c r="AM7">
-        <v>2.23</v>
+        <v>1.9</v>
       </c>
       <c r="AN7">
-        <v>1.92</v>
+        <v>2.2</v>
       </c>
       <c r="AO7">
-        <v>1.77</v>
+        <v>1.62</v>
       </c>
       <c r="AP7">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="AQ7">
-        <v>1.49</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="8" spans="1:43">
@@ -1726,258 +1741,258 @@
         <v>45411</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D8">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F8" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G8">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="H8">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="I8">
         <v>4.33</v>
       </c>
       <c r="J8">
+        <v>1.86</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>1.33</v>
+      </c>
+      <c r="N8">
+        <v>3.25</v>
+      </c>
+      <c r="O8">
+        <v>1.04</v>
+      </c>
+      <c r="P8">
+        <v>15.25</v>
+      </c>
+      <c r="Q8">
+        <v>1.22</v>
+      </c>
+      <c r="R8">
+        <v>4.28</v>
+      </c>
+      <c r="S8">
+        <v>1.7</v>
+      </c>
+      <c r="T8">
         <v>2.15</v>
       </c>
-      <c r="K8">
-        <v>3.1</v>
-      </c>
-      <c r="L8">
-        <v>3</v>
-      </c>
-      <c r="M8">
-        <v>1.44</v>
-      </c>
-      <c r="N8">
-        <v>2.63</v>
-      </c>
-      <c r="O8">
-        <v>1.07</v>
-      </c>
-      <c r="P8">
-        <v>9.5</v>
-      </c>
-      <c r="Q8">
-        <v>1.39</v>
-      </c>
-      <c r="R8">
-        <v>3.03</v>
-      </c>
-      <c r="S8">
-        <v>2</v>
-      </c>
-      <c r="T8">
+      <c r="U8">
+        <v>1.67</v>
+      </c>
+      <c r="V8">
+        <v>2.1</v>
+      </c>
+      <c r="W8">
+        <v>1.25</v>
+      </c>
+      <c r="X8">
+        <v>1.25</v>
+      </c>
+      <c r="Y8">
+        <v>1.95</v>
+      </c>
+      <c r="Z8">
+        <v>0.5</v>
+      </c>
+      <c r="AA8">
+        <v>1.33</v>
+      </c>
+      <c r="AB8">
         <v>1.73</v>
       </c>
-      <c r="U8">
-        <v>1.95</v>
-      </c>
-      <c r="V8">
-        <v>1.8</v>
-      </c>
-      <c r="W8">
-        <v>1.32</v>
-      </c>
-      <c r="X8">
-        <v>1.32</v>
-      </c>
-      <c r="Y8">
-        <v>1.72</v>
-      </c>
-      <c r="Z8">
-        <v>2</v>
-      </c>
-      <c r="AA8">
-        <v>1.5</v>
-      </c>
-      <c r="AB8">
-        <v>1.87</v>
-      </c>
       <c r="AC8">
-        <v>1.24</v>
+        <v>1.4</v>
       </c>
       <c r="AD8">
-        <v>3.11</v>
+        <v>3.13</v>
       </c>
       <c r="AE8">
-        <v>1.63</v>
+        <v>1.51</v>
       </c>
       <c r="AF8">
-        <v>9.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG8">
-        <v>2.67</v>
+        <v>3.04</v>
       </c>
       <c r="AH8">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AI8">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="AJ8">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AK8">
-        <v>2.84</v>
+        <v>3.18</v>
       </c>
       <c r="AL8">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AM8">
-        <v>2.14</v>
+        <v>2.33</v>
       </c>
       <c r="AN8">
-        <v>2.06</v>
+        <v>1.91</v>
       </c>
       <c r="AO8">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="AP8">
-        <v>2.69</v>
+        <v>2.44</v>
       </c>
       <c r="AQ8">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="9" spans="1:43">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="2">
         <v>45411</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D9">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G9">
         <v>2.75</v>
       </c>
       <c r="H9">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="I9">
-        <v>3.7</v>
+        <v>4.33</v>
       </c>
       <c r="J9">
         <v>2.15</v>
       </c>
       <c r="K9">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L9">
-        <v>2.95</v>
+        <v>3.6</v>
       </c>
       <c r="M9">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="N9">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="O9">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="P9">
-        <v>11.75</v>
+        <v>9.5</v>
       </c>
       <c r="Q9">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="R9">
-        <v>3.67</v>
+        <v>3.03</v>
       </c>
       <c r="S9">
-        <v>1.86</v>
+        <v>2.2</v>
       </c>
       <c r="T9">
-        <v>1.84</v>
+        <v>1.68</v>
       </c>
       <c r="U9">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="V9">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W9">
+        <v>1.32</v>
+      </c>
+      <c r="X9">
+        <v>1.32</v>
+      </c>
+      <c r="Y9">
+        <v>1.72</v>
+      </c>
+      <c r="Z9">
+        <v>2</v>
+      </c>
+      <c r="AA9">
+        <v>1.5</v>
+      </c>
+      <c r="AB9">
+        <v>1.87</v>
+      </c>
+      <c r="AC9">
+        <v>1.24</v>
+      </c>
+      <c r="AD9">
+        <v>3.11</v>
+      </c>
+      <c r="AE9">
+        <v>1.63</v>
+      </c>
+      <c r="AF9">
+        <v>9.5</v>
+      </c>
+      <c r="AG9">
+        <v>2.67</v>
+      </c>
+      <c r="AH9">
+        <v>1.17</v>
+      </c>
+      <c r="AI9">
+        <v>4.2</v>
+      </c>
+      <c r="AJ9">
         <v>1.35</v>
       </c>
-      <c r="X9">
-        <v>1.31</v>
-      </c>
-      <c r="Y9">
-        <v>1.65</v>
-      </c>
-      <c r="Z9">
-        <v>1.5</v>
-      </c>
-      <c r="AA9">
-        <v>1</v>
-      </c>
-      <c r="AB9">
-        <v>1.3</v>
-      </c>
-      <c r="AC9">
-        <v>1.26</v>
-      </c>
-      <c r="AD9">
-        <v>2.56</v>
-      </c>
-      <c r="AE9">
-        <v>1.91</v>
-      </c>
-      <c r="AF9">
-        <v>8</v>
-      </c>
-      <c r="AG9">
-        <v>2.1</v>
-      </c>
-      <c r="AH9">
-        <v>1.25</v>
-      </c>
-      <c r="AI9">
-        <v>3.6</v>
-      </c>
-      <c r="AJ9">
-        <v>1.38</v>
-      </c>
       <c r="AK9">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="AL9">
-        <v>1.9</v>
+        <v>1.63</v>
       </c>
       <c r="AM9">
-        <v>1.9</v>
+        <v>2.14</v>
       </c>
       <c r="AN9">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AO9">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AP9">
-        <v>3</v>
+        <v>2.69</v>
       </c>
       <c r="AQ9">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="10" spans="1:43">
@@ -1988,58 +2003,58 @@
         <v>45411</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D10">
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G10">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="H10">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="I10">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="J10">
-        <v>1.6</v>
+        <v>2.35</v>
       </c>
       <c r="K10">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L10">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="M10">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="N10">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O10">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="P10">
-        <v>15.25</v>
+        <v>13.25</v>
       </c>
       <c r="Q10">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="R10">
-        <v>4.28</v>
+        <v>3.93</v>
       </c>
       <c r="S10">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="T10">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U10">
         <v>1.67</v>
@@ -2048,198 +2063,198 @@
         <v>2.1</v>
       </c>
       <c r="W10">
+        <v>1.4</v>
+      </c>
+      <c r="X10">
+        <v>1.3</v>
+      </c>
+      <c r="Y10">
+        <v>1.62</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>1.5</v>
+      </c>
+      <c r="AB10">
+        <v>1.52</v>
+      </c>
+      <c r="AC10">
+        <v>1.98</v>
+      </c>
+      <c r="AD10">
+        <v>3.5</v>
+      </c>
+      <c r="AE10">
+        <v>2.05</v>
+      </c>
+      <c r="AF10">
+        <v>9.5</v>
+      </c>
+      <c r="AG10">
+        <v>2</v>
+      </c>
+      <c r="AH10">
+        <v>1.11</v>
+      </c>
+      <c r="AI10">
+        <v>5.15</v>
+      </c>
+      <c r="AJ10">
         <v>1.25</v>
       </c>
-      <c r="X10">
-        <v>1.25</v>
-      </c>
-      <c r="Y10">
+      <c r="AK10">
+        <v>3.42</v>
+      </c>
+      <c r="AL10">
+        <v>1.46</v>
+      </c>
+      <c r="AM10">
+        <v>2.52</v>
+      </c>
+      <c r="AN10">
+        <v>1.8</v>
+      </c>
+      <c r="AO10">
         <v>1.95</v>
       </c>
-      <c r="Z10">
-        <v>0.5</v>
-      </c>
-      <c r="AA10">
-        <v>1.33</v>
-      </c>
-      <c r="AB10">
-        <v>1.73</v>
-      </c>
-      <c r="AC10">
-        <v>1.4</v>
-      </c>
-      <c r="AD10">
-        <v>3.13</v>
-      </c>
-      <c r="AE10">
-        <v>1.51</v>
-      </c>
-      <c r="AF10">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG10">
-        <v>3.04</v>
-      </c>
-      <c r="AH10">
-        <v>1.14</v>
-      </c>
-      <c r="AI10">
-        <v>4.7</v>
-      </c>
-      <c r="AJ10">
-        <v>1.28</v>
-      </c>
-      <c r="AK10">
-        <v>3.18</v>
-      </c>
-      <c r="AL10">
-        <v>1.53</v>
-      </c>
-      <c r="AM10">
-        <v>2.33</v>
-      </c>
-      <c r="AN10">
-        <v>1.91</v>
-      </c>
-      <c r="AO10">
-        <v>1.83</v>
-      </c>
       <c r="AP10">
-        <v>2.44</v>
+        <v>2.25</v>
       </c>
       <c r="AQ10">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="11" spans="1:43">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" s="2">
         <v>45411</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G11">
-        <v>2.88</v>
+        <v>3.75</v>
       </c>
       <c r="H11">
         <v>2.2</v>
       </c>
       <c r="I11">
+        <v>2.88</v>
+      </c>
+      <c r="J11">
+        <v>3.1</v>
+      </c>
+      <c r="K11">
         <v>3.5</v>
       </c>
-      <c r="J11">
-        <v>2.37</v>
-      </c>
-      <c r="K11">
-        <v>3.3</v>
-      </c>
       <c r="L11">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="M11">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="N11">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O11">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="P11">
-        <v>13.25</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Q11">
         <v>1.26</v>
       </c>
       <c r="R11">
-        <v>3.93</v>
+        <v>3.34</v>
       </c>
       <c r="S11">
+        <v>1.9</v>
+      </c>
+      <c r="T11">
+        <v>1.87</v>
+      </c>
+      <c r="U11">
+        <v>1.75</v>
+      </c>
+      <c r="V11">
+        <v>2</v>
+      </c>
+      <c r="W11">
+        <v>1.62</v>
+      </c>
+      <c r="X11">
+        <v>1.29</v>
+      </c>
+      <c r="Y11">
+        <v>1.35</v>
+      </c>
+      <c r="Z11">
+        <v>1.5</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
         <v>1.7</v>
       </c>
-      <c r="T11">
-        <v>2.05</v>
-      </c>
-      <c r="U11">
-        <v>1.67</v>
-      </c>
-      <c r="V11">
-        <v>2.1</v>
-      </c>
-      <c r="W11">
-        <v>1.4</v>
-      </c>
-      <c r="X11">
-        <v>1.3</v>
-      </c>
-      <c r="Y11">
-        <v>1.62</v>
-      </c>
-      <c r="Z11">
-        <v>1</v>
-      </c>
-      <c r="AA11">
-        <v>1.5</v>
-      </c>
-      <c r="AB11">
-        <v>1.52</v>
-      </c>
       <c r="AC11">
-        <v>1.98</v>
+        <v>1.53</v>
       </c>
       <c r="AD11">
-        <v>3.5</v>
+        <v>3.23</v>
       </c>
       <c r="AE11">
-        <v>2.05</v>
+        <v>2.39</v>
       </c>
       <c r="AF11">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AG11">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AH11">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AI11">
-        <v>5.15</v>
+        <v>4.4</v>
       </c>
       <c r="AJ11">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="AK11">
-        <v>3.42</v>
+        <v>2.9</v>
       </c>
       <c r="AL11">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AM11">
-        <v>2.52</v>
+        <v>2.23</v>
       </c>
       <c r="AN11">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="AO11">
-        <v>1.95</v>
+        <v>1.77</v>
       </c>
       <c r="AP11">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ11">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="12" spans="1:43">
@@ -2250,127 +2265,127 @@
         <v>45411</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D12">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F12" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G12">
-        <v>3.55</v>
+        <v>4.33</v>
       </c>
       <c r="H12">
-        <v>1.99</v>
+        <v>2.3</v>
       </c>
       <c r="I12">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="J12">
-        <v>2.62</v>
+        <v>3.8</v>
       </c>
       <c r="K12">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="L12">
-        <v>2.45</v>
+        <v>1.83</v>
       </c>
       <c r="M12">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="N12">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="O12">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="P12">
-        <v>8</v>
+        <v>14.25</v>
       </c>
       <c r="Q12">
+        <v>1.24</v>
+      </c>
+      <c r="R12">
+        <v>4.07</v>
+      </c>
+      <c r="S12">
+        <v>1.7</v>
+      </c>
+      <c r="T12">
+        <v>1.95</v>
+      </c>
+      <c r="U12">
+        <v>1.7</v>
+      </c>
+      <c r="V12">
+        <v>2.05</v>
+      </c>
+      <c r="W12">
+        <v>2</v>
+      </c>
+      <c r="X12">
+        <v>1.22</v>
+      </c>
+      <c r="Y12">
+        <v>1.24</v>
+      </c>
+      <c r="Z12">
         <v>1.38</v>
       </c>
-      <c r="R12">
-        <v>2.9</v>
-      </c>
-      <c r="S12">
-        <v>2.1</v>
-      </c>
-      <c r="T12">
-        <v>1.65</v>
-      </c>
-      <c r="U12">
-        <v>1.85</v>
-      </c>
-      <c r="V12">
-        <v>1.85</v>
-      </c>
-      <c r="W12">
-        <v>1.53</v>
-      </c>
-      <c r="X12">
-        <v>1.28</v>
-      </c>
-      <c r="Y12">
-        <v>1.38</v>
-      </c>
-      <c r="Z12">
-        <v>1.57</v>
-      </c>
       <c r="AA12">
-        <v>0.57</v>
+        <v>1.92</v>
       </c>
       <c r="AB12">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="AC12">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
       <c r="AD12">
-        <v>2.63</v>
+        <v>2.93</v>
       </c>
       <c r="AE12">
-        <v>2.33</v>
+        <v>2.8</v>
       </c>
       <c r="AF12">
         <v>8</v>
       </c>
       <c r="AG12">
-        <v>1.82</v>
+        <v>1.59</v>
       </c>
       <c r="AH12">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AI12">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="AJ12">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AK12">
+        <v>2.3</v>
+      </c>
+      <c r="AL12">
+        <v>1.95</v>
+      </c>
+      <c r="AM12">
+        <v>1.77</v>
+      </c>
+      <c r="AN12">
         <v>2.5</v>
       </c>
-      <c r="AL12">
-        <v>1.73</v>
-      </c>
-      <c r="AM12">
-        <v>2</v>
-      </c>
-      <c r="AN12">
-        <v>2.2</v>
-      </c>
       <c r="AO12">
-        <v>1.55</v>
+        <v>1.46</v>
       </c>
       <c r="AP12">
-        <v>2.95</v>
+        <v>3.4</v>
       </c>
       <c r="AQ12">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="13" spans="1:43">
@@ -2381,16 +2396,16 @@
         <v>45411</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D13">
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G13">
         <v>2.3</v>
@@ -2402,13 +2417,13 @@
         <v>4.75</v>
       </c>
       <c r="J13">
-        <v>1.6</v>
+        <v>1.86</v>
       </c>
       <c r="K13">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="L13">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="M13">
         <v>1.33</v>
@@ -2429,10 +2444,10 @@
         <v>4</v>
       </c>
       <c r="S13">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T13">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="U13">
         <v>1.8</v>
@@ -2512,16 +2527,16 @@
         <v>45411</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F14" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G14">
         <v>2.2</v>
@@ -2533,13 +2548,13 @@
         <v>6.5</v>
       </c>
       <c r="J14">
-        <v>1.69</v>
+        <v>1.47</v>
       </c>
       <c r="K14">
-        <v>3.68</v>
+        <v>3.41</v>
       </c>
       <c r="L14">
-        <v>4.98</v>
+        <v>5.13</v>
       </c>
       <c r="M14">
         <v>1.42</v>
@@ -2560,7 +2575,7 @@
         <v>3.2</v>
       </c>
       <c r="S14">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="T14">
         <v>1.7</v>
@@ -2643,16 +2658,16 @@
         <v>45411</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D15">
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F15" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G15">
         <v>2.75</v>
@@ -2664,13 +2679,13 @@
         <v>3.7</v>
       </c>
       <c r="J15">
-        <v>2.37</v>
+        <v>1.97</v>
       </c>
       <c r="K15">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L15">
-        <v>2.84</v>
+        <v>3.1</v>
       </c>
       <c r="M15">
         <v>1.4</v>
@@ -2691,10 +2706,10 @@
         <v>3.3</v>
       </c>
       <c r="S15">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="T15">
-        <v>1.7</v>
+        <v>1.87</v>
       </c>
       <c r="U15">
         <v>1.72</v>
@@ -2774,58 +2789,58 @@
         <v>45411</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D16">
         <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F16" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G16">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="H16">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="I16">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="J16">
-        <v>4.33</v>
+        <v>1.85</v>
       </c>
       <c r="K16">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L16">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="M16">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="N16">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O16">
         <v>1.02</v>
       </c>
       <c r="P16">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q16">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="R16">
         <v>4.4</v>
       </c>
       <c r="S16">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="T16">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="U16">
         <v>1.62</v>
@@ -2834,67 +2849,67 @@
         <v>2.2</v>
       </c>
       <c r="W16">
-        <v>2.09</v>
+        <v>1.27</v>
       </c>
       <c r="X16">
         <v>1.22</v>
       </c>
       <c r="Y16">
-        <v>1.2</v>
+        <v>1.88</v>
       </c>
       <c r="Z16">
-        <v>1.06</v>
+        <v>1.53</v>
       </c>
       <c r="AA16">
-        <v>1.71</v>
+        <v>0.88</v>
       </c>
       <c r="AB16">
-        <v>1.35</v>
+        <v>1.75</v>
       </c>
       <c r="AC16">
-        <v>1.55</v>
+        <v>1.21</v>
       </c>
       <c r="AD16">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="AE16">
-        <v>3.35</v>
+        <v>1.7</v>
       </c>
       <c r="AF16">
-        <v>9.699999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG16">
-        <v>1.42</v>
+        <v>2.45</v>
       </c>
       <c r="AH16">
         <v>1.18</v>
       </c>
       <c r="AI16">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AJ16">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="AK16">
-        <v>2.75</v>
+        <v>2.93</v>
       </c>
       <c r="AL16">
-        <v>1.71</v>
+        <v>1.59</v>
       </c>
       <c r="AM16">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="AN16">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AO16">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="AP16">
-        <v>2.71</v>
+        <v>2.6</v>
       </c>
       <c r="AQ16">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="17" spans="1:43">
@@ -2905,58 +2920,58 @@
         <v>45411</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D17">
         <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F17" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G17">
+        <v>4.5</v>
+      </c>
+      <c r="H17">
         <v>2.4</v>
       </c>
-      <c r="H17">
-        <v>2.38</v>
-      </c>
       <c r="I17">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="J17">
-        <v>1.85</v>
+        <v>4.33</v>
       </c>
       <c r="K17">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L17">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="M17">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="N17">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O17">
         <v>1.02</v>
       </c>
       <c r="P17">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Q17">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="R17">
         <v>4.4</v>
       </c>
       <c r="S17">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="T17">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="U17">
         <v>1.62</v>
@@ -2965,67 +2980,67 @@
         <v>2.2</v>
       </c>
       <c r="W17">
-        <v>1.27</v>
+        <v>2.09</v>
       </c>
       <c r="X17">
         <v>1.22</v>
       </c>
       <c r="Y17">
-        <v>1.88</v>
+        <v>1.2</v>
       </c>
       <c r="Z17">
-        <v>1.53</v>
+        <v>1.06</v>
       </c>
       <c r="AA17">
-        <v>0.88</v>
+        <v>1.71</v>
       </c>
       <c r="AB17">
-        <v>1.75</v>
+        <v>1.35</v>
       </c>
       <c r="AC17">
-        <v>1.21</v>
+        <v>1.55</v>
       </c>
       <c r="AD17">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="AE17">
-        <v>1.7</v>
+        <v>3.35</v>
       </c>
       <c r="AF17">
-        <v>9.199999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AG17">
-        <v>2.45</v>
+        <v>1.42</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ17">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="AK17">
-        <v>2.93</v>
+        <v>2.75</v>
       </c>
       <c r="AL17">
-        <v>1.59</v>
+        <v>1.71</v>
       </c>
       <c r="AM17">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="AN17">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="AO17">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="AP17">
-        <v>2.6</v>
+        <v>2.71</v>
       </c>
       <c r="AQ17">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="18" spans="1:43">
@@ -3036,16 +3051,16 @@
         <v>45411</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D18">
         <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F18" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G18">
         <v>1.89</v>
@@ -3057,13 +3072,13 @@
         <v>6.14</v>
       </c>
       <c r="J18">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="K18">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="L18">
-        <v>5.37</v>
+        <v>6</v>
       </c>
       <c r="M18">
         <v>1.26</v>
@@ -3084,10 +3099,10 @@
         <v>4.75</v>
       </c>
       <c r="S18">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="T18">
-        <v>2.4</v>
+        <v>2.47</v>
       </c>
       <c r="U18">
         <v>1.66</v>
@@ -3167,16 +3182,16 @@
         <v>45411</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D19">
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F19" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G19">
         <v>3.1</v>
@@ -3188,13 +3203,13 @@
         <v>4</v>
       </c>
       <c r="J19">
-        <v>2.31</v>
+        <v>2.15</v>
       </c>
       <c r="K19">
-        <v>3.14</v>
+        <v>3.1</v>
       </c>
       <c r="L19">
-        <v>3.14</v>
+        <v>3.4</v>
       </c>
       <c r="M19">
         <v>1.53</v>
@@ -3215,10 +3230,10 @@
         <v>2.54</v>
       </c>
       <c r="S19">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="T19">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="U19">
         <v>2.1</v>
@@ -3260,10 +3275,10 @@
         <v>1.8</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>3.84</v>
       </c>
       <c r="AJ19">
         <v>1.39</v>
@@ -3298,16 +3313,16 @@
         <v>45411</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D20">
         <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F20" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G20">
         <v>2.88</v>
@@ -3319,10 +3334,10 @@
         <v>4.5</v>
       </c>
       <c r="J20">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="K20">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="L20">
         <v>3.75</v>
@@ -3346,10 +3361,10 @@
         <v>2.7</v>
       </c>
       <c r="S20">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="T20">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="U20">
         <v>2.1</v>
@@ -3429,16 +3444,16 @@
         <v>45411</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D21">
         <v>35</v>
       </c>
       <c r="E21" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F21" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G21">
         <v>4.75</v>
@@ -3450,13 +3465,13 @@
         <v>2.39</v>
       </c>
       <c r="J21">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="K21">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L21">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="M21">
         <v>1.36</v>
@@ -3477,10 +3492,10 @@
         <v>3.8</v>
       </c>
       <c r="S21">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="T21">
-        <v>1.85</v>
+        <v>1.96</v>
       </c>
       <c r="U21">
         <v>1.73</v>
@@ -3560,16 +3575,16 @@
         <v>45411</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D22">
         <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F22" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -3581,13 +3596,13 @@
         <v>4</v>
       </c>
       <c r="J22">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="K22">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L22">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="M22">
         <v>1.5</v>
@@ -3608,7 +3623,7 @@
         <v>3</v>
       </c>
       <c r="S22">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="T22">
         <v>1.6</v>
@@ -3691,16 +3706,16 @@
         <v>45411</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D23">
         <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F23" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G23">
         <v>6</v>
@@ -3712,13 +3727,13 @@
         <v>2</v>
       </c>
       <c r="J23">
-        <v>6</v>
+        <v>4.92</v>
       </c>
       <c r="K23">
-        <v>4.2</v>
+        <v>4.14</v>
       </c>
       <c r="L23">
-        <v>1.53</v>
+        <v>1.64</v>
       </c>
       <c r="M23">
         <v>1.33</v>
@@ -3739,10 +3754,10 @@
         <v>4.2</v>
       </c>
       <c r="S23">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="T23">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="U23">
         <v>1.83</v>
@@ -3822,16 +3837,16 @@
         <v>45411</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D24">
         <v>33</v>
       </c>
       <c r="E24" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F24" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G24">
         <v>1.83</v>
@@ -3843,13 +3858,13 @@
         <v>7</v>
       </c>
       <c r="J24">
-        <v>1.16</v>
+        <v>1.36</v>
       </c>
       <c r="K24">
-        <v>6.25</v>
+        <v>5</v>
       </c>
       <c r="L24">
-        <v>11.54</v>
+        <v>9</v>
       </c>
       <c r="M24">
         <v>1.3</v>
@@ -3870,10 +3885,10 @@
         <v>4.6</v>
       </c>
       <c r="S24">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="T24">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="U24">
         <v>1.95</v>
@@ -3953,34 +3968,34 @@
         <v>45411</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D25">
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F25" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G25">
         <v>1.73</v>
       </c>
       <c r="H25">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="I25">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="J25">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="K25">
-        <v>5.42</v>
+        <v>5</v>
       </c>
       <c r="L25">
-        <v>8.720000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="M25">
         <v>1.3</v>
@@ -4004,13 +4019,13 @@
         <v>1.57</v>
       </c>
       <c r="T25">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="U25">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="V25">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="W25">
         <v>1.04</v>
@@ -4037,13 +4052,13 @@
         <v>2.98</v>
       </c>
       <c r="AE25">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AF25">
         <v>13</v>
       </c>
       <c r="AG25">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="AH25">
         <v>1.16</v>
@@ -4058,22 +4073,22 @@
         <v>3.28</v>
       </c>
       <c r="AL25">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="AM25">
         <v>2.41</v>
       </c>
       <c r="AN25">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="AO25">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="AP25">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="AQ25">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="26" spans="1:43">
@@ -4084,16 +4099,16 @@
         <v>45411</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D26">
         <v>31</v>
       </c>
       <c r="E26" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F26" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -4105,14 +4120,14 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="K26">
+        <v>3.4</v>
+      </c>
+      <c r="L26">
         <v>3.3</v>
       </c>
-      <c r="L26">
-        <v>3.2</v>
-      </c>
       <c r="M26">
         <v>0</v>
       </c>
@@ -4132,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="S26">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T26">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U26">
         <v>0</v>
@@ -4215,16 +4230,16 @@
         <v>45411</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D27">
         <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F27" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G27">
         <v>3.6</v>
@@ -4236,13 +4251,13 @@
         <v>2.38</v>
       </c>
       <c r="J27">
-        <v>3.47</v>
+        <v>3.55</v>
       </c>
       <c r="K27">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="L27">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="M27">
         <v>1.25</v>
@@ -4263,10 +4278,10 @@
         <v>5.1</v>
       </c>
       <c r="S27">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="T27">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="U27">
         <v>1.44</v>
@@ -4346,16 +4361,16 @@
         <v>45411</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D28">
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F28" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G28">
         <v>2.75</v>
@@ -4370,10 +4385,10 @@
         <v>2</v>
       </c>
       <c r="K28">
+        <v>3.3</v>
+      </c>
+      <c r="L28">
         <v>3.75</v>
-      </c>
-      <c r="L28">
-        <v>3.5</v>
       </c>
       <c r="M28">
         <v>1.48</v>
@@ -4397,7 +4412,7 @@
         <v>2.3</v>
       </c>
       <c r="T28">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="U28">
         <v>2.1</v>
@@ -4430,13 +4445,13 @@
         <v>0</v>
       </c>
       <c r="AE28">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="AF28">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="AG28">
-        <v>2.4</v>
+        <v>2.33</v>
       </c>
       <c r="AH28">
         <v>1.2</v>
@@ -4471,264 +4486,264 @@
     </row>
     <row r="29" spans="1:43">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B29" s="2">
         <v>45411</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F29" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G29">
-        <v>3.75</v>
+        <v>1.91</v>
       </c>
       <c r="H29">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="I29">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="J29">
-        <v>3.1</v>
+        <v>1.36</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="L29">
-        <v>2.55</v>
+        <v>8</v>
       </c>
       <c r="M29">
+        <v>1.4</v>
+      </c>
+      <c r="N29">
+        <v>2.75</v>
+      </c>
+      <c r="O29">
+        <v>1.02</v>
+      </c>
+      <c r="P29">
+        <v>9.1</v>
+      </c>
+      <c r="Q29">
+        <v>1.28</v>
+      </c>
+      <c r="R29">
+        <v>3.2</v>
+      </c>
+      <c r="S29">
+        <v>1.9</v>
+      </c>
+      <c r="T29">
+        <v>1.83</v>
+      </c>
+      <c r="U29">
+        <v>2.25</v>
+      </c>
+      <c r="V29">
         <v>1.57</v>
       </c>
-      <c r="N29">
-        <v>2.25</v>
-      </c>
-      <c r="O29">
-        <v>1.06</v>
-      </c>
-      <c r="P29">
-        <v>6.6</v>
-      </c>
-      <c r="Q29">
-        <v>1.45</v>
-      </c>
-      <c r="R29">
-        <v>2.48</v>
-      </c>
-      <c r="S29">
+      <c r="W29">
+        <v>1.08</v>
+      </c>
+      <c r="X29">
+        <v>1.15</v>
+      </c>
+      <c r="Y29">
         <v>2.5</v>
       </c>
-      <c r="T29">
-        <v>1.5</v>
-      </c>
-      <c r="U29">
-        <v>2.05</v>
-      </c>
-      <c r="V29">
-        <v>1.7</v>
-      </c>
-      <c r="W29">
-        <v>1.53</v>
-      </c>
-      <c r="X29">
+      <c r="Z29">
+        <v>2.5</v>
+      </c>
+      <c r="AA29">
+        <v>0.5</v>
+      </c>
+      <c r="AB29">
         <v>1.33</v>
       </c>
-      <c r="Y29">
-        <v>1.4</v>
-      </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-      <c r="AA29">
-        <v>3</v>
-      </c>
-      <c r="AB29">
-        <v>1.75</v>
-      </c>
       <c r="AC29">
-        <v>1.42</v>
+        <v>1.21</v>
       </c>
       <c r="AD29">
-        <v>3.17</v>
+        <v>2.54</v>
       </c>
       <c r="AE29">
-        <v>1.95</v>
+        <v>1.18</v>
       </c>
       <c r="AF29">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AG29">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AH29">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="AI29">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="AJ29">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AK29">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="AL29">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="AM29">
-        <v>2.09</v>
+        <v>1.85</v>
       </c>
       <c r="AN29">
-        <v>2.11</v>
+        <v>2.37</v>
       </c>
       <c r="AO29">
-        <v>1.65</v>
+        <v>1.51</v>
       </c>
       <c r="AP29">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="AQ29">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="30" spans="1:43">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B30" s="2">
         <v>45411</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D30">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E30" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F30" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G30">
+        <v>3.75</v>
+      </c>
+      <c r="H30">
         <v>1.91</v>
       </c>
-      <c r="H30">
-        <v>2.3</v>
-      </c>
       <c r="I30">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>2.55</v>
+      </c>
+      <c r="M30">
+        <v>1.57</v>
+      </c>
+      <c r="N30">
+        <v>2.25</v>
+      </c>
+      <c r="O30">
+        <v>1.06</v>
+      </c>
+      <c r="P30">
+        <v>6.6</v>
+      </c>
+      <c r="Q30">
+        <v>1.45</v>
+      </c>
+      <c r="R30">
+        <v>2.48</v>
+      </c>
+      <c r="S30">
+        <v>2.5</v>
+      </c>
+      <c r="T30">
+        <v>1.53</v>
+      </c>
+      <c r="U30">
+        <v>2.05</v>
+      </c>
+      <c r="V30">
+        <v>1.7</v>
+      </c>
+      <c r="W30">
+        <v>1.53</v>
+      </c>
+      <c r="X30">
+        <v>1.33</v>
+      </c>
+      <c r="Y30">
+        <v>1.4</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>3</v>
+      </c>
+      <c r="AB30">
+        <v>1.75</v>
+      </c>
+      <c r="AC30">
         <v>1.42</v>
       </c>
-      <c r="K30">
-        <v>4.31</v>
-      </c>
-      <c r="L30">
-        <v>7.5</v>
-      </c>
-      <c r="M30">
-        <v>1.4</v>
-      </c>
-      <c r="N30">
+      <c r="AD30">
+        <v>3.17</v>
+      </c>
+      <c r="AE30">
+        <v>1.95</v>
+      </c>
+      <c r="AF30">
+        <v>8.5</v>
+      </c>
+      <c r="AG30">
+        <v>2</v>
+      </c>
+      <c r="AH30">
+        <v>1.18</v>
+      </c>
+      <c r="AI30">
+        <v>4</v>
+      </c>
+      <c r="AJ30">
+        <v>1.38</v>
+      </c>
+      <c r="AK30">
+        <v>2.8</v>
+      </c>
+      <c r="AL30">
+        <v>1.91</v>
+      </c>
+      <c r="AM30">
+        <v>2.09</v>
+      </c>
+      <c r="AN30">
+        <v>2.11</v>
+      </c>
+      <c r="AO30">
+        <v>1.65</v>
+      </c>
+      <c r="AP30">
         <v>2.75</v>
       </c>
-      <c r="O30">
-        <v>1.02</v>
-      </c>
-      <c r="P30">
-        <v>9.1</v>
-      </c>
-      <c r="Q30">
-        <v>1.28</v>
-      </c>
-      <c r="R30">
-        <v>3.2</v>
-      </c>
-      <c r="S30">
-        <v>1.91</v>
-      </c>
-      <c r="T30">
-        <v>1.8</v>
-      </c>
-      <c r="U30">
-        <v>2.25</v>
-      </c>
-      <c r="V30">
-        <v>1.57</v>
-      </c>
-      <c r="W30">
-        <v>1.08</v>
-      </c>
-      <c r="X30">
-        <v>1.15</v>
-      </c>
-      <c r="Y30">
-        <v>2.5</v>
-      </c>
-      <c r="Z30">
-        <v>2.5</v>
-      </c>
-      <c r="AA30">
-        <v>0.5</v>
-      </c>
-      <c r="AB30">
-        <v>1.33</v>
-      </c>
-      <c r="AC30">
-        <v>1.21</v>
-      </c>
-      <c r="AD30">
-        <v>2.54</v>
-      </c>
-      <c r="AE30">
-        <v>1.18</v>
-      </c>
-      <c r="AF30">
-        <v>11</v>
-      </c>
-      <c r="AG30">
-        <v>6</v>
-      </c>
-      <c r="AH30">
-        <v>1.3</v>
-      </c>
-      <c r="AI30">
-        <v>3.2</v>
-      </c>
-      <c r="AJ30">
-        <v>1.47</v>
-      </c>
-      <c r="AK30">
-        <v>2.5</v>
-      </c>
-      <c r="AL30">
-        <v>1.85</v>
-      </c>
-      <c r="AM30">
-        <v>1.85</v>
-      </c>
-      <c r="AN30">
-        <v>2.37</v>
-      </c>
-      <c r="AO30">
-        <v>1.51</v>
-      </c>
-      <c r="AP30">
-        <v>3.2</v>
-      </c>
       <c r="AQ30">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="31" spans="1:43">
@@ -4739,16 +4754,16 @@
         <v>45411</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D31">
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F31" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G31">
         <v>2.3</v>
@@ -4760,13 +4775,13 @@
         <v>5</v>
       </c>
       <c r="J31">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="K31">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L31">
-        <v>4.67</v>
+        <v>4.33</v>
       </c>
       <c r="M31">
         <v>1.4</v>
@@ -4790,7 +4805,7 @@
         <v>1.95</v>
       </c>
       <c r="T31">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U31">
         <v>1.83</v>
@@ -4860,6 +4875,137 @@
       </c>
       <c r="AQ31">
         <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:43">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="2">
+        <v>45411</v>
+      </c>
+      <c r="C32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G32">
+        <v>2.75</v>
+      </c>
+      <c r="H32">
+        <v>2.2</v>
+      </c>
+      <c r="I32">
+        <v>4</v>
+      </c>
+      <c r="J32">
+        <v>1.78</v>
+      </c>
+      <c r="K32">
+        <v>3.4</v>
+      </c>
+      <c r="L32">
+        <v>3.6</v>
+      </c>
+      <c r="M32">
+        <v>1.4</v>
+      </c>
+      <c r="N32">
+        <v>2.75</v>
+      </c>
+      <c r="O32">
+        <v>1.04</v>
+      </c>
+      <c r="P32">
+        <v>12</v>
+      </c>
+      <c r="Q32">
+        <v>1.3</v>
+      </c>
+      <c r="R32">
+        <v>3.5</v>
+      </c>
+      <c r="S32">
+        <v>1.8</v>
+      </c>
+      <c r="T32">
+        <v>1.9</v>
+      </c>
+      <c r="U32">
+        <v>1.73</v>
+      </c>
+      <c r="V32">
+        <v>2</v>
+      </c>
+      <c r="W32">
+        <v>1.33</v>
+      </c>
+      <c r="X32">
+        <v>1.25</v>
+      </c>
+      <c r="Y32">
+        <v>1.72</v>
+      </c>
+      <c r="Z32">
+        <v>0.33</v>
+      </c>
+      <c r="AA32">
+        <v>0.25</v>
+      </c>
+      <c r="AB32">
+        <v>1.6</v>
+      </c>
+      <c r="AC32">
+        <v>1.21</v>
+      </c>
+      <c r="AD32">
+        <v>2.81</v>
+      </c>
+      <c r="AE32">
+        <v>1.68</v>
+      </c>
+      <c r="AF32">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AG32">
+        <v>2.55</v>
+      </c>
+      <c r="AH32">
+        <v>1.21</v>
+      </c>
+      <c r="AI32">
+        <v>3.7</v>
+      </c>
+      <c r="AJ32">
+        <v>1.35</v>
+      </c>
+      <c r="AK32">
+        <v>2.84</v>
+      </c>
+      <c r="AL32">
+        <v>1.61</v>
+      </c>
+      <c r="AM32">
+        <v>2.12</v>
+      </c>
+      <c r="AN32">
+        <v>2.04</v>
+      </c>
+      <c r="AO32">
+        <v>1.69</v>
+      </c>
+      <c r="AP32">
+        <v>2.64</v>
+      </c>
+      <c r="AQ32">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2024-04-29_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-29_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -157,21 +157,21 @@
     <t>Egypt Egyptian Premier League</t>
   </si>
   <si>
+    <t>Denmark Superliga</t>
+  </si>
+  <si>
+    <t>Sweden Superettan</t>
+  </si>
+  <si>
+    <t>Sweden Allsvenskan</t>
+  </si>
+  <si>
     <t>Poland Ekstraklasa</t>
   </si>
   <si>
     <t>Turkey Süper Lig</t>
   </si>
   <si>
-    <t>Sweden Allsvenskan</t>
-  </si>
-  <si>
-    <t>Sweden Superettan</t>
-  </si>
-  <si>
-    <t>Denmark Superliga</t>
-  </si>
-  <si>
     <t>Netherlands Eerste Divisie</t>
   </si>
   <si>
@@ -277,27 +277,27 @@
     <t>Ceramica Cleopatra</t>
   </si>
   <si>
+    <t>Silkeborg</t>
+  </si>
+  <si>
+    <t>Trelleborg</t>
+  </si>
+  <si>
+    <t>Brommapojkarna</t>
+  </si>
+  <si>
     <t>Puszcza Niepołomice</t>
   </si>
   <si>
+    <t>Elfsborg</t>
+  </si>
+  <si>
     <t>Fatih Karagümrük</t>
   </si>
   <si>
-    <t>Elfsborg</t>
-  </si>
-  <si>
     <t>Mjällby</t>
   </si>
   <si>
-    <t>Brommapojkarna</t>
-  </si>
-  <si>
-    <t>Trelleborg</t>
-  </si>
-  <si>
-    <t>Silkeborg</t>
-  </si>
-  <si>
     <t>Hammarby</t>
   </si>
   <si>
@@ -307,12 +307,12 @@
     <t>Rapid Bucureşti</t>
   </si>
   <si>
+    <t>Utrecht II</t>
+  </si>
+  <si>
     <t>Emmen</t>
   </si>
   <si>
-    <t>Utrecht II</t>
-  </si>
-  <si>
     <t>Valur</t>
   </si>
   <si>
@@ -337,12 +337,12 @@
     <t>Shamrock Rovers</t>
   </si>
   <si>
+    <t>Fylkir</t>
+  </si>
+  <si>
     <t>Estrela Amadora</t>
   </si>
   <si>
-    <t>Fylkir</t>
-  </si>
-  <si>
     <t>Mirassol</t>
   </si>
   <si>
@@ -370,27 +370,27 @@
     <t>Pharco</t>
   </si>
   <si>
+    <t>Midtjylland</t>
+  </si>
+  <si>
+    <t>Degerfors</t>
+  </si>
+  <si>
+    <t>IFK Göteborg</t>
+  </si>
+  <si>
     <t>Korona Kielce</t>
   </si>
   <si>
+    <t>Sirius</t>
+  </si>
+  <si>
     <t>Antalyaspor</t>
   </si>
   <si>
-    <t>Sirius</t>
-  </si>
-  <si>
     <t>Kalmar</t>
   </si>
   <si>
-    <t>IFK Göteborg</t>
-  </si>
-  <si>
-    <t>Degerfors</t>
-  </si>
-  <si>
-    <t>Midtjylland</t>
-  </si>
-  <si>
     <t>Västerås SK</t>
   </si>
   <si>
@@ -400,12 +400,12 @@
     <t>CS U Craiova</t>
   </si>
   <si>
+    <t>ADO Den Haag</t>
+  </si>
+  <si>
     <t>Helmond Sport</t>
   </si>
   <si>
-    <t>ADO Den Haag</t>
-  </si>
-  <si>
     <t>Fram</t>
   </si>
   <si>
@@ -430,10 +430,10 @@
     <t>Drogheda United</t>
   </si>
   <si>
+    <t>Stjarnan</t>
+  </si>
+  <si>
     <t>Farense</t>
-  </si>
-  <si>
-    <t>Stjarnan</t>
   </si>
   <si>
     <t>Ceará</t>
@@ -976,13 +976,13 @@
         <v>4.45</v>
       </c>
       <c r="J2">
-        <v>2.09</v>
+        <v>2.3</v>
       </c>
       <c r="K2">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L2">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="M2">
         <v>1.46</v>
@@ -1003,10 +1003,10 @@
         <v>2.79</v>
       </c>
       <c r="S2">
-        <v>2.3</v>
+        <v>2.29</v>
       </c>
       <c r="T2">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="U2">
         <v>1.93</v>
@@ -1107,13 +1107,13 @@
         <v>4</v>
       </c>
       <c r="J3">
-        <v>2.17</v>
+        <v>2.2</v>
       </c>
       <c r="K3">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="M3">
         <v>1.45</v>
@@ -1131,7 +1131,7 @@
         <v>1.38</v>
       </c>
       <c r="R3">
-        <v>2.98</v>
+        <v>2.75</v>
       </c>
       <c r="S3">
         <v>2.16</v>
@@ -1238,13 +1238,13 @@
         <v>4</v>
       </c>
       <c r="J4">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K4">
+        <v>3.4</v>
+      </c>
+      <c r="L4">
         <v>3.5</v>
-      </c>
-      <c r="L4">
-        <v>3.7</v>
       </c>
       <c r="M4">
         <v>1.36</v>
@@ -1265,10 +1265,10 @@
         <v>3.5</v>
       </c>
       <c r="S4">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="T4">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="U4">
         <v>1.73</v>
@@ -1301,13 +1301,13 @@
         <v>2.38</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="AH4">
         <v>1.17</v>
@@ -1360,19 +1360,19 @@
         <v>117</v>
       </c>
       <c r="G5">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H5">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="I5">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="J5">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="K5">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L5">
         <v>4.5</v>
@@ -1396,16 +1396,16 @@
         <v>2.91</v>
       </c>
       <c r="S5">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="T5">
-        <v>1.66</v>
+        <v>1.5</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="V5">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="W5">
         <v>1.18</v>
@@ -1432,13 +1432,13 @@
         <v>3</v>
       </c>
       <c r="AE5">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AF5">
-        <v>9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AG5">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="AH5">
         <v>1.24</v>
@@ -1482,7 +1482,7 @@
         <v>70</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
         <v>87</v>
@@ -1491,115 +1491,115 @@
         <v>118</v>
       </c>
       <c r="G6">
-        <v>3.55</v>
+        <v>4.33</v>
       </c>
       <c r="H6">
-        <v>1.99</v>
+        <v>2.3</v>
       </c>
       <c r="I6">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="J6">
-        <v>2.72</v>
+        <v>3.95</v>
       </c>
       <c r="K6">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="L6">
-        <v>2.53</v>
+        <v>1.76</v>
       </c>
       <c r="M6">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="N6">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="O6">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="P6">
-        <v>8</v>
+        <v>14.25</v>
       </c>
       <c r="Q6">
+        <v>1.24</v>
+      </c>
+      <c r="R6">
+        <v>4.07</v>
+      </c>
+      <c r="S6">
+        <v>1.66</v>
+      </c>
+      <c r="T6">
+        <v>2.04</v>
+      </c>
+      <c r="U6">
+        <v>1.7</v>
+      </c>
+      <c r="V6">
+        <v>2.05</v>
+      </c>
+      <c r="W6">
+        <v>2</v>
+      </c>
+      <c r="X6">
+        <v>1.22</v>
+      </c>
+      <c r="Y6">
+        <v>1.24</v>
+      </c>
+      <c r="Z6">
         <v>1.38</v>
       </c>
-      <c r="R6">
-        <v>2.9</v>
-      </c>
-      <c r="S6">
-        <v>2.05</v>
-      </c>
-      <c r="T6">
-        <v>1.61</v>
-      </c>
-      <c r="U6">
-        <v>1.85</v>
-      </c>
-      <c r="V6">
-        <v>1.85</v>
-      </c>
-      <c r="W6">
-        <v>1.53</v>
-      </c>
-      <c r="X6">
-        <v>1.28</v>
-      </c>
-      <c r="Y6">
-        <v>1.38</v>
-      </c>
-      <c r="Z6">
-        <v>1.57</v>
-      </c>
       <c r="AA6">
-        <v>0.57</v>
+        <v>1.92</v>
       </c>
       <c r="AB6">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="AC6">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
       <c r="AD6">
-        <v>2.63</v>
+        <v>2.93</v>
       </c>
       <c r="AE6">
-        <v>2.33</v>
+        <v>2.8</v>
       </c>
       <c r="AF6">
         <v>8</v>
       </c>
       <c r="AG6">
-        <v>1.82</v>
+        <v>1.59</v>
       </c>
       <c r="AH6">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AI6">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="AJ6">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AK6">
+        <v>2.3</v>
+      </c>
+      <c r="AL6">
+        <v>1.95</v>
+      </c>
+      <c r="AM6">
+        <v>1.77</v>
+      </c>
+      <c r="AN6">
         <v>2.5</v>
       </c>
-      <c r="AL6">
-        <v>1.73</v>
-      </c>
-      <c r="AM6">
-        <v>2</v>
-      </c>
-      <c r="AN6">
-        <v>2.2</v>
-      </c>
       <c r="AO6">
-        <v>1.55</v>
+        <v>1.46</v>
       </c>
       <c r="AP6">
-        <v>2.95</v>
+        <v>3.4</v>
       </c>
       <c r="AQ6">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="7" spans="1:43">
@@ -1613,7 +1613,7 @@
         <v>70</v>
       </c>
       <c r="D7">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
         <v>88</v>
@@ -1622,61 +1622,61 @@
         <v>119</v>
       </c>
       <c r="G7">
+        <v>3.75</v>
+      </c>
+      <c r="H7">
+        <v>2.2</v>
+      </c>
+      <c r="I7">
+        <v>2.88</v>
+      </c>
+      <c r="J7">
+        <v>3.05</v>
+      </c>
+      <c r="K7">
+        <v>3.35</v>
+      </c>
+      <c r="L7">
+        <v>2.12</v>
+      </c>
+      <c r="M7">
+        <v>1.4</v>
+      </c>
+      <c r="N7">
         <v>2.75</v>
-      </c>
-      <c r="H7">
-        <v>2.15</v>
-      </c>
-      <c r="I7">
-        <v>3.7</v>
-      </c>
-      <c r="J7">
-        <v>2.02</v>
-      </c>
-      <c r="K7">
-        <v>3.45</v>
-      </c>
-      <c r="L7">
-        <v>3.6</v>
-      </c>
-      <c r="M7">
-        <v>1.33</v>
-      </c>
-      <c r="N7">
-        <v>3</v>
       </c>
       <c r="O7">
         <v>1.01</v>
       </c>
       <c r="P7">
-        <v>11.75</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Q7">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="R7">
-        <v>3.67</v>
+        <v>3.34</v>
       </c>
       <c r="S7">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="T7">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="U7">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V7">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W7">
+        <v>1.62</v>
+      </c>
+      <c r="X7">
+        <v>1.29</v>
+      </c>
+      <c r="Y7">
         <v>1.35</v>
-      </c>
-      <c r="X7">
-        <v>1.31</v>
-      </c>
-      <c r="Y7">
-        <v>1.65</v>
       </c>
       <c r="Z7">
         <v>1.5</v>
@@ -1685,52 +1685,52 @@
         <v>1</v>
       </c>
       <c r="AB7">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="AC7">
-        <v>1.26</v>
+        <v>1.53</v>
       </c>
       <c r="AD7">
-        <v>2.56</v>
+        <v>3.23</v>
       </c>
       <c r="AE7">
-        <v>1.91</v>
+        <v>2.39</v>
       </c>
       <c r="AF7">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG7">
-        <v>2.1</v>
+        <v>1.82</v>
       </c>
       <c r="AH7">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="AI7">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="AJ7">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="AK7">
         <v>2.9</v>
       </c>
       <c r="AL7">
-        <v>1.9</v>
+        <v>1.57</v>
       </c>
       <c r="AM7">
-        <v>1.9</v>
+        <v>2.23</v>
       </c>
       <c r="AN7">
-        <v>2.2</v>
+        <v>1.92</v>
       </c>
       <c r="AO7">
-        <v>1.62</v>
+        <v>1.77</v>
       </c>
       <c r="AP7">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ7">
-        <v>1.36</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="8" spans="1:43">
@@ -1753,46 +1753,46 @@
         <v>120</v>
       </c>
       <c r="G8">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="H8">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="I8">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="J8">
-        <v>1.86</v>
+        <v>2.52</v>
       </c>
       <c r="K8">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>2.52</v>
       </c>
       <c r="M8">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="N8">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O8">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="P8">
-        <v>15.25</v>
+        <v>13.25</v>
       </c>
       <c r="Q8">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="R8">
-        <v>4.28</v>
+        <v>3.93</v>
       </c>
       <c r="S8">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T8">
-        <v>2.15</v>
+        <v>2.03</v>
       </c>
       <c r="U8">
         <v>1.67</v>
@@ -1801,72 +1801,72 @@
         <v>2.1</v>
       </c>
       <c r="W8">
+        <v>1.4</v>
+      </c>
+      <c r="X8">
+        <v>1.3</v>
+      </c>
+      <c r="Y8">
+        <v>1.62</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>1.5</v>
+      </c>
+      <c r="AB8">
+        <v>1.52</v>
+      </c>
+      <c r="AC8">
+        <v>1.98</v>
+      </c>
+      <c r="AD8">
+        <v>3.5</v>
+      </c>
+      <c r="AE8">
+        <v>2.05</v>
+      </c>
+      <c r="AF8">
+        <v>9.5</v>
+      </c>
+      <c r="AG8">
+        <v>2</v>
+      </c>
+      <c r="AH8">
+        <v>1.11</v>
+      </c>
+      <c r="AI8">
+        <v>5.15</v>
+      </c>
+      <c r="AJ8">
         <v>1.25</v>
       </c>
-      <c r="X8">
-        <v>1.25</v>
-      </c>
-      <c r="Y8">
+      <c r="AK8">
+        <v>3.42</v>
+      </c>
+      <c r="AL8">
+        <v>1.46</v>
+      </c>
+      <c r="AM8">
+        <v>2.52</v>
+      </c>
+      <c r="AN8">
+        <v>1.8</v>
+      </c>
+      <c r="AO8">
         <v>1.95</v>
       </c>
-      <c r="Z8">
-        <v>0.5</v>
-      </c>
-      <c r="AA8">
-        <v>1.33</v>
-      </c>
-      <c r="AB8">
-        <v>1.73</v>
-      </c>
-      <c r="AC8">
-        <v>1.4</v>
-      </c>
-      <c r="AD8">
-        <v>3.13</v>
-      </c>
-      <c r="AE8">
-        <v>1.51</v>
-      </c>
-      <c r="AF8">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG8">
-        <v>3.04</v>
-      </c>
-      <c r="AH8">
-        <v>1.14</v>
-      </c>
-      <c r="AI8">
-        <v>4.7</v>
-      </c>
-      <c r="AJ8">
-        <v>1.28</v>
-      </c>
-      <c r="AK8">
-        <v>3.18</v>
-      </c>
-      <c r="AL8">
-        <v>1.53</v>
-      </c>
-      <c r="AM8">
-        <v>2.33</v>
-      </c>
-      <c r="AN8">
-        <v>1.91</v>
-      </c>
-      <c r="AO8">
-        <v>1.83</v>
-      </c>
       <c r="AP8">
-        <v>2.44</v>
+        <v>2.25</v>
       </c>
       <c r="AQ8">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="9" spans="1:43">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B9" s="2">
         <v>45411</v>
@@ -1875,7 +1875,7 @@
         <v>70</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
         <v>90</v>
@@ -1884,115 +1884,115 @@
         <v>121</v>
       </c>
       <c r="G9">
-        <v>2.75</v>
+        <v>3.55</v>
       </c>
       <c r="H9">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="I9">
-        <v>4.33</v>
+        <v>3.2</v>
       </c>
       <c r="J9">
-        <v>2.15</v>
+        <v>2.69</v>
       </c>
       <c r="K9">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L9">
-        <v>3.6</v>
+        <v>2.54</v>
       </c>
       <c r="M9">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="N9">
+        <v>2.5</v>
+      </c>
+      <c r="O9">
+        <v>1.06</v>
+      </c>
+      <c r="P9">
+        <v>8</v>
+      </c>
+      <c r="Q9">
+        <v>1.38</v>
+      </c>
+      <c r="R9">
+        <v>2.9</v>
+      </c>
+      <c r="S9">
+        <v>2.07</v>
+      </c>
+      <c r="T9">
+        <v>1.66</v>
+      </c>
+      <c r="U9">
+        <v>1.85</v>
+      </c>
+      <c r="V9">
+        <v>1.85</v>
+      </c>
+      <c r="W9">
+        <v>1.53</v>
+      </c>
+      <c r="X9">
+        <v>1.28</v>
+      </c>
+      <c r="Y9">
+        <v>1.38</v>
+      </c>
+      <c r="Z9">
+        <v>1.57</v>
+      </c>
+      <c r="AA9">
+        <v>0.57</v>
+      </c>
+      <c r="AB9">
+        <v>1.3</v>
+      </c>
+      <c r="AC9">
+        <v>1.33</v>
+      </c>
+      <c r="AD9">
         <v>2.63</v>
       </c>
-      <c r="O9">
-        <v>1.07</v>
-      </c>
-      <c r="P9">
-        <v>9.5</v>
-      </c>
-      <c r="Q9">
-        <v>1.39</v>
-      </c>
-      <c r="R9">
-        <v>3.03</v>
-      </c>
-      <c r="S9">
+      <c r="AE9">
+        <v>2.33</v>
+      </c>
+      <c r="AF9">
+        <v>8</v>
+      </c>
+      <c r="AG9">
+        <v>1.82</v>
+      </c>
+      <c r="AH9">
+        <v>1.22</v>
+      </c>
+      <c r="AI9">
+        <v>3.55</v>
+      </c>
+      <c r="AJ9">
+        <v>1.42</v>
+      </c>
+      <c r="AK9">
+        <v>2.5</v>
+      </c>
+      <c r="AL9">
+        <v>1.73</v>
+      </c>
+      <c r="AM9">
+        <v>2</v>
+      </c>
+      <c r="AN9">
         <v>2.2</v>
       </c>
-      <c r="T9">
-        <v>1.68</v>
-      </c>
-      <c r="U9">
-        <v>1.95</v>
-      </c>
-      <c r="V9">
-        <v>1.8</v>
-      </c>
-      <c r="W9">
+      <c r="AO9">
+        <v>1.55</v>
+      </c>
+      <c r="AP9">
+        <v>2.95</v>
+      </c>
+      <c r="AQ9">
         <v>1.32</v>
-      </c>
-      <c r="X9">
-        <v>1.32</v>
-      </c>
-      <c r="Y9">
-        <v>1.72</v>
-      </c>
-      <c r="Z9">
-        <v>2</v>
-      </c>
-      <c r="AA9">
-        <v>1.5</v>
-      </c>
-      <c r="AB9">
-        <v>1.87</v>
-      </c>
-      <c r="AC9">
-        <v>1.24</v>
-      </c>
-      <c r="AD9">
-        <v>3.11</v>
-      </c>
-      <c r="AE9">
-        <v>1.63</v>
-      </c>
-      <c r="AF9">
-        <v>9.5</v>
-      </c>
-      <c r="AG9">
-        <v>2.67</v>
-      </c>
-      <c r="AH9">
-        <v>1.17</v>
-      </c>
-      <c r="AI9">
-        <v>4.2</v>
-      </c>
-      <c r="AJ9">
-        <v>1.35</v>
-      </c>
-      <c r="AK9">
-        <v>2.84</v>
-      </c>
-      <c r="AL9">
-        <v>1.63</v>
-      </c>
-      <c r="AM9">
-        <v>2.14</v>
-      </c>
-      <c r="AN9">
-        <v>2.06</v>
-      </c>
-      <c r="AO9">
-        <v>1.71</v>
-      </c>
-      <c r="AP9">
-        <v>2.69</v>
-      </c>
-      <c r="AQ9">
-        <v>1.41</v>
       </c>
     </row>
     <row r="10" spans="1:43">
@@ -2015,46 +2015,46 @@
         <v>122</v>
       </c>
       <c r="G10">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="H10">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="I10">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="J10">
-        <v>2.35</v>
+        <v>1.6</v>
       </c>
       <c r="K10">
-        <v>3.6</v>
+        <v>4.05</v>
       </c>
       <c r="L10">
-        <v>3</v>
+        <v>4.55</v>
       </c>
       <c r="M10">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="N10">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O10">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="P10">
-        <v>13.25</v>
+        <v>15.25</v>
       </c>
       <c r="Q10">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="R10">
-        <v>3.93</v>
+        <v>4.28</v>
       </c>
       <c r="S10">
-        <v>1.83</v>
+        <v>1.56</v>
       </c>
       <c r="T10">
-        <v>2</v>
+        <v>2.24</v>
       </c>
       <c r="U10">
         <v>1.67</v>
@@ -2063,72 +2063,72 @@
         <v>2.1</v>
       </c>
       <c r="W10">
+        <v>1.25</v>
+      </c>
+      <c r="X10">
+        <v>1.25</v>
+      </c>
+      <c r="Y10">
+        <v>1.95</v>
+      </c>
+      <c r="Z10">
+        <v>0.5</v>
+      </c>
+      <c r="AA10">
+        <v>1.33</v>
+      </c>
+      <c r="AB10">
+        <v>1.73</v>
+      </c>
+      <c r="AC10">
         <v>1.4</v>
       </c>
-      <c r="X10">
-        <v>1.3</v>
-      </c>
-      <c r="Y10">
-        <v>1.62</v>
-      </c>
-      <c r="Z10">
-        <v>1</v>
-      </c>
-      <c r="AA10">
-        <v>1.5</v>
-      </c>
-      <c r="AB10">
-        <v>1.52</v>
-      </c>
-      <c r="AC10">
-        <v>1.98</v>
-      </c>
       <c r="AD10">
-        <v>3.5</v>
+        <v>3.13</v>
       </c>
       <c r="AE10">
-        <v>2.05</v>
+        <v>1.51</v>
       </c>
       <c r="AF10">
-        <v>9.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG10">
-        <v>2</v>
+        <v>3.04</v>
       </c>
       <c r="AH10">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AI10">
-        <v>5.15</v>
+        <v>4.7</v>
       </c>
       <c r="AJ10">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AK10">
-        <v>3.42</v>
+        <v>3.18</v>
       </c>
       <c r="AL10">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="AM10">
-        <v>2.52</v>
+        <v>2.33</v>
       </c>
       <c r="AN10">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AO10">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="AP10">
-        <v>2.25</v>
+        <v>2.44</v>
       </c>
       <c r="AQ10">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="11" spans="1:43">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" s="2">
         <v>45411</v>
@@ -2137,7 +2137,7 @@
         <v>70</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
         <v>92</v>
@@ -2146,61 +2146,61 @@
         <v>123</v>
       </c>
       <c r="G11">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="H11">
+        <v>2.15</v>
+      </c>
+      <c r="I11">
+        <v>3.7</v>
+      </c>
+      <c r="J11">
         <v>2.2</v>
       </c>
-      <c r="I11">
-        <v>2.88</v>
-      </c>
-      <c r="J11">
-        <v>3.1</v>
-      </c>
       <c r="K11">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L11">
-        <v>2.2</v>
+        <v>2.93</v>
       </c>
       <c r="M11">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="N11">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O11">
         <v>1.01</v>
       </c>
       <c r="P11">
-        <v>9.199999999999999</v>
+        <v>11.75</v>
       </c>
       <c r="Q11">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="R11">
-        <v>3.34</v>
+        <v>3.67</v>
       </c>
       <c r="S11">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T11">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="U11">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V11">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W11">
-        <v>1.62</v>
+        <v>1.35</v>
       </c>
       <c r="X11">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="Y11">
-        <v>1.35</v>
+        <v>1.65</v>
       </c>
       <c r="Z11">
         <v>1.5</v>
@@ -2209,57 +2209,57 @@
         <v>1</v>
       </c>
       <c r="AB11">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="AC11">
-        <v>1.53</v>
+        <v>1.26</v>
       </c>
       <c r="AD11">
-        <v>3.23</v>
+        <v>2.56</v>
       </c>
       <c r="AE11">
-        <v>2.39</v>
+        <v>1.91</v>
       </c>
       <c r="AF11">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG11">
-        <v>1.82</v>
+        <v>2.1</v>
       </c>
       <c r="AH11">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AI11">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="AJ11">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="AK11">
         <v>2.9</v>
       </c>
       <c r="AL11">
-        <v>1.57</v>
+        <v>1.9</v>
       </c>
       <c r="AM11">
-        <v>2.23</v>
+        <v>1.9</v>
       </c>
       <c r="AN11">
-        <v>1.92</v>
+        <v>2.2</v>
       </c>
       <c r="AO11">
-        <v>1.77</v>
+        <v>1.62</v>
       </c>
       <c r="AP11">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="AQ11">
-        <v>1.49</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="12" spans="1:43">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B12" s="2">
         <v>45411</v>
@@ -2268,7 +2268,7 @@
         <v>70</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E12" t="s">
         <v>93</v>
@@ -2277,115 +2277,115 @@
         <v>124</v>
       </c>
       <c r="G12">
+        <v>2.75</v>
+      </c>
+      <c r="H12">
+        <v>2.05</v>
+      </c>
+      <c r="I12">
         <v>4.33</v>
       </c>
-      <c r="H12">
-        <v>2.3</v>
-      </c>
-      <c r="I12">
-        <v>2.4</v>
-      </c>
       <c r="J12">
-        <v>3.8</v>
+        <v>1.99</v>
       </c>
       <c r="K12">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="L12">
-        <v>1.83</v>
+        <v>3.45</v>
       </c>
       <c r="M12">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="N12">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="O12">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="P12">
-        <v>14.25</v>
+        <v>9.5</v>
       </c>
       <c r="Q12">
+        <v>1.39</v>
+      </c>
+      <c r="R12">
+        <v>3.03</v>
+      </c>
+      <c r="S12">
+        <v>1.99</v>
+      </c>
+      <c r="T12">
+        <v>1.7</v>
+      </c>
+      <c r="U12">
+        <v>1.95</v>
+      </c>
+      <c r="V12">
+        <v>1.8</v>
+      </c>
+      <c r="W12">
+        <v>1.32</v>
+      </c>
+      <c r="X12">
+        <v>1.32</v>
+      </c>
+      <c r="Y12">
+        <v>1.72</v>
+      </c>
+      <c r="Z12">
+        <v>2</v>
+      </c>
+      <c r="AA12">
+        <v>1.5</v>
+      </c>
+      <c r="AB12">
+        <v>1.87</v>
+      </c>
+      <c r="AC12">
         <v>1.24</v>
       </c>
-      <c r="R12">
-        <v>4.07</v>
-      </c>
-      <c r="S12">
-        <v>1.7</v>
-      </c>
-      <c r="T12">
-        <v>1.95</v>
-      </c>
-      <c r="U12">
-        <v>1.7</v>
-      </c>
-      <c r="V12">
-        <v>2.05</v>
-      </c>
-      <c r="W12">
-        <v>2</v>
-      </c>
-      <c r="X12">
-        <v>1.22</v>
-      </c>
-      <c r="Y12">
-        <v>1.24</v>
-      </c>
-      <c r="Z12">
-        <v>1.38</v>
-      </c>
-      <c r="AA12">
-        <v>1.92</v>
-      </c>
-      <c r="AB12">
-        <v>1.44</v>
-      </c>
-      <c r="AC12">
-        <v>1.49</v>
-      </c>
       <c r="AD12">
-        <v>2.93</v>
+        <v>3.11</v>
       </c>
       <c r="AE12">
-        <v>2.8</v>
+        <v>1.63</v>
       </c>
       <c r="AF12">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AG12">
-        <v>1.59</v>
+        <v>2.67</v>
       </c>
       <c r="AH12">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="AI12">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="AJ12">
-        <v>1.54</v>
+        <v>1.35</v>
       </c>
       <c r="AK12">
-        <v>2.3</v>
+        <v>2.84</v>
       </c>
       <c r="AL12">
-        <v>1.95</v>
+        <v>1.63</v>
       </c>
       <c r="AM12">
-        <v>1.77</v>
+        <v>2.14</v>
       </c>
       <c r="AN12">
-        <v>2.5</v>
+        <v>2.06</v>
       </c>
       <c r="AO12">
-        <v>1.46</v>
+        <v>1.71</v>
       </c>
       <c r="AP12">
-        <v>3.4</v>
+        <v>2.69</v>
       </c>
       <c r="AQ12">
-        <v>1.26</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="13" spans="1:43">
@@ -2417,13 +2417,13 @@
         <v>4.75</v>
       </c>
       <c r="J13">
-        <v>1.86</v>
+        <v>1.44</v>
       </c>
       <c r="K13">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>5.65</v>
       </c>
       <c r="M13">
         <v>1.33</v>
@@ -2444,10 +2444,10 @@
         <v>4</v>
       </c>
       <c r="S13">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="T13">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="U13">
         <v>1.8</v>
@@ -2548,13 +2548,13 @@
         <v>6.5</v>
       </c>
       <c r="J14">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="K14">
-        <v>3.41</v>
+        <v>3.4</v>
       </c>
       <c r="L14">
-        <v>5.13</v>
+        <v>5.6</v>
       </c>
       <c r="M14">
         <v>1.42</v>
@@ -2575,10 +2575,10 @@
         <v>3.2</v>
       </c>
       <c r="S14">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="T14">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="U14">
         <v>2.09</v>
@@ -2679,13 +2679,13 @@
         <v>3.7</v>
       </c>
       <c r="J15">
-        <v>1.97</v>
+        <v>2.24</v>
       </c>
       <c r="K15">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="L15">
-        <v>3.1</v>
+        <v>2.72</v>
       </c>
       <c r="M15">
         <v>1.4</v>
@@ -2706,10 +2706,10 @@
         <v>3.3</v>
       </c>
       <c r="S15">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="T15">
-        <v>1.87</v>
+        <v>1.62</v>
       </c>
       <c r="U15">
         <v>1.72</v>
@@ -2801,46 +2801,46 @@
         <v>128</v>
       </c>
       <c r="G16">
+        <v>4.5</v>
+      </c>
+      <c r="H16">
         <v>2.4</v>
       </c>
-      <c r="H16">
-        <v>2.38</v>
-      </c>
       <c r="I16">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="J16">
-        <v>1.85</v>
+        <v>4.33</v>
       </c>
       <c r="K16">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L16">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="M16">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="N16">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O16">
         <v>1.02</v>
       </c>
       <c r="P16">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Q16">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="R16">
         <v>4.4</v>
       </c>
       <c r="S16">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="T16">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="U16">
         <v>1.62</v>
@@ -2849,67 +2849,67 @@
         <v>2.2</v>
       </c>
       <c r="W16">
-        <v>1.27</v>
+        <v>2.09</v>
       </c>
       <c r="X16">
         <v>1.22</v>
       </c>
       <c r="Y16">
-        <v>1.88</v>
+        <v>1.2</v>
       </c>
       <c r="Z16">
-        <v>1.53</v>
+        <v>1.06</v>
       </c>
       <c r="AA16">
-        <v>0.88</v>
+        <v>1.71</v>
       </c>
       <c r="AB16">
-        <v>1.75</v>
+        <v>1.35</v>
       </c>
       <c r="AC16">
-        <v>1.21</v>
+        <v>1.55</v>
       </c>
       <c r="AD16">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="AE16">
-        <v>1.7</v>
+        <v>3.35</v>
       </c>
       <c r="AF16">
-        <v>9.199999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AG16">
-        <v>2.45</v>
+        <v>1.42</v>
       </c>
       <c r="AH16">
         <v>1.18</v>
       </c>
       <c r="AI16">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AJ16">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="AK16">
-        <v>2.93</v>
+        <v>2.75</v>
       </c>
       <c r="AL16">
-        <v>1.59</v>
+        <v>1.71</v>
       </c>
       <c r="AM16">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="AN16">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="AO16">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="AP16">
-        <v>2.6</v>
+        <v>2.71</v>
       </c>
       <c r="AQ16">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="17" spans="1:43">
@@ -2932,46 +2932,46 @@
         <v>129</v>
       </c>
       <c r="G17">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="H17">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="I17">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="J17">
-        <v>4.33</v>
+        <v>1.85</v>
       </c>
       <c r="K17">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L17">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="M17">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="N17">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O17">
         <v>1.02</v>
       </c>
       <c r="P17">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q17">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="R17">
         <v>4.4</v>
       </c>
       <c r="S17">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="T17">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="U17">
         <v>1.62</v>
@@ -2980,67 +2980,67 @@
         <v>2.2</v>
       </c>
       <c r="W17">
-        <v>2.09</v>
+        <v>1.27</v>
       </c>
       <c r="X17">
         <v>1.22</v>
       </c>
       <c r="Y17">
-        <v>1.2</v>
+        <v>1.88</v>
       </c>
       <c r="Z17">
-        <v>1.06</v>
+        <v>1.53</v>
       </c>
       <c r="AA17">
-        <v>1.71</v>
+        <v>0.88</v>
       </c>
       <c r="AB17">
-        <v>1.35</v>
+        <v>1.75</v>
       </c>
       <c r="AC17">
-        <v>1.55</v>
+        <v>1.21</v>
       </c>
       <c r="AD17">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="AE17">
-        <v>3.35</v>
+        <v>1.7</v>
       </c>
       <c r="AF17">
-        <v>9.699999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG17">
-        <v>1.42</v>
+        <v>2.45</v>
       </c>
       <c r="AH17">
         <v>1.18</v>
       </c>
       <c r="AI17">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AJ17">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="AK17">
-        <v>2.75</v>
+        <v>2.93</v>
       </c>
       <c r="AL17">
-        <v>1.71</v>
+        <v>1.59</v>
       </c>
       <c r="AM17">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="AN17">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AO17">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="AP17">
-        <v>2.71</v>
+        <v>2.6</v>
       </c>
       <c r="AQ17">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="18" spans="1:43">
@@ -3072,13 +3072,13 @@
         <v>6.14</v>
       </c>
       <c r="J18">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="K18">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L18">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="M18">
         <v>1.26</v>
@@ -3099,10 +3099,10 @@
         <v>4.75</v>
       </c>
       <c r="S18">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="T18">
-        <v>2.47</v>
+        <v>2.27</v>
       </c>
       <c r="U18">
         <v>1.66</v>
@@ -3206,10 +3206,10 @@
         <v>2.15</v>
       </c>
       <c r="K19">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M19">
         <v>1.53</v>
@@ -3230,10 +3230,10 @@
         <v>2.54</v>
       </c>
       <c r="S19">
-        <v>2.45</v>
+        <v>2.27</v>
       </c>
       <c r="T19">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="U19">
         <v>2.1</v>
@@ -3334,13 +3334,13 @@
         <v>4.5</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="K20">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="L20">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M20">
         <v>1.53</v>
@@ -3361,10 +3361,10 @@
         <v>2.7</v>
       </c>
       <c r="S20">
-        <v>2.4</v>
+        <v>2.07</v>
       </c>
       <c r="T20">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="U20">
         <v>2.1</v>
@@ -3465,13 +3465,13 @@
         <v>2.39</v>
       </c>
       <c r="J21">
-        <v>3.95</v>
+        <v>4.25</v>
       </c>
       <c r="K21">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L21">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="M21">
         <v>1.36</v>
@@ -3492,10 +3492,10 @@
         <v>3.8</v>
       </c>
       <c r="S21">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="T21">
-        <v>1.96</v>
+        <v>1.84</v>
       </c>
       <c r="U21">
         <v>1.73</v>
@@ -3596,13 +3596,13 @@
         <v>4</v>
       </c>
       <c r="J22">
-        <v>2.28</v>
+        <v>2.05</v>
       </c>
       <c r="K22">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="L22">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="M22">
         <v>1.5</v>
@@ -3623,10 +3623,10 @@
         <v>3</v>
       </c>
       <c r="S22">
-        <v>2.35</v>
+        <v>1.93</v>
       </c>
       <c r="T22">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="U22">
         <v>1.95</v>
@@ -3727,13 +3727,13 @@
         <v>2</v>
       </c>
       <c r="J23">
-        <v>4.92</v>
+        <v>5.3</v>
       </c>
       <c r="K23">
-        <v>4.14</v>
+        <v>4.1</v>
       </c>
       <c r="L23">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="M23">
         <v>1.33</v>
@@ -3754,10 +3754,10 @@
         <v>4.2</v>
       </c>
       <c r="S23">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="T23">
-        <v>2.05</v>
+        <v>1.82</v>
       </c>
       <c r="U23">
         <v>1.83</v>
@@ -3858,13 +3858,13 @@
         <v>7</v>
       </c>
       <c r="J24">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="K24">
-        <v>5</v>
+        <v>4.65</v>
       </c>
       <c r="L24">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M24">
         <v>1.3</v>
@@ -3885,10 +3885,10 @@
         <v>4.6</v>
       </c>
       <c r="S24">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="T24">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="U24">
         <v>1.95</v>
@@ -3989,13 +3989,13 @@
         <v>8.5</v>
       </c>
       <c r="J25">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="K25">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L25">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="M25">
         <v>1.3</v>
@@ -4016,7 +4016,7 @@
         <v>4.33</v>
       </c>
       <c r="S25">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="T25">
         <v>2.3</v>
@@ -4093,7 +4093,7 @@
     </row>
     <row r="26" spans="1:43">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B26" s="2">
         <v>45411</v>
@@ -4102,7 +4102,7 @@
         <v>78</v>
       </c>
       <c r="D26">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E26" t="s">
         <v>107</v>
@@ -4111,85 +4111,85 @@
         <v>138</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="J26">
-        <v>2.15</v>
+        <v>3.35</v>
       </c>
       <c r="K26">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="L26">
-        <v>3.3</v>
+        <v>1.83</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>3.72</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="S26">
-        <v>2</v>
+        <v>1.41</v>
       </c>
       <c r="T26">
-        <v>1.8</v>
+        <v>2.48</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="Z26">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="AA26">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AB26">
-        <v>1.06</v>
+        <v>1.51</v>
       </c>
       <c r="AC26">
-        <v>1.02</v>
+        <v>1.58</v>
       </c>
       <c r="AD26">
-        <v>2.08</v>
+        <v>3.09</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AH26">
         <v>0</v>
@@ -4198,33 +4198,33 @@
         <v>0</v>
       </c>
       <c r="AJ26">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AK26">
-        <v>0</v>
+        <v>4.55</v>
       </c>
       <c r="AL26">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AM26">
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="AN26">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AO26">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AP26">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AQ26">
-        <v>0</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="27" spans="1:43">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B27" s="2">
         <v>45411</v>
@@ -4233,7 +4233,7 @@
         <v>78</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="E27" t="s">
         <v>108</v>
@@ -4242,85 +4242,85 @@
         <v>139</v>
       </c>
       <c r="G27">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>3.55</v>
+        <v>2.32</v>
       </c>
       <c r="K27">
-        <v>3.8</v>
+        <v>3.15</v>
       </c>
       <c r="L27">
-        <v>1.88</v>
+        <v>2.94</v>
       </c>
       <c r="M27">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>3.72</v>
+        <v>0</v>
       </c>
       <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>2.06</v>
+      </c>
+      <c r="T27">
+        <v>1.65</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>1.2</v>
+      </c>
+      <c r="AA27">
+        <v>0.8</v>
+      </c>
+      <c r="AB27">
+        <v>1.06</v>
+      </c>
+      <c r="AC27">
         <v>1.02</v>
       </c>
-      <c r="P27">
-        <v>13</v>
-      </c>
-      <c r="Q27">
-        <v>1.11</v>
-      </c>
-      <c r="R27">
-        <v>5.1</v>
-      </c>
-      <c r="S27">
-        <v>1.45</v>
-      </c>
-      <c r="T27">
-        <v>2.56</v>
-      </c>
-      <c r="U27">
-        <v>1.44</v>
-      </c>
-      <c r="V27">
-        <v>2.57</v>
-      </c>
-      <c r="W27">
-        <v>1.86</v>
-      </c>
-      <c r="X27">
-        <v>1.23</v>
-      </c>
-      <c r="Y27">
-        <v>1.28</v>
-      </c>
-      <c r="Z27">
-        <v>0.5</v>
-      </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-      <c r="AB27">
-        <v>1.51</v>
-      </c>
-      <c r="AC27">
-        <v>1.58</v>
-      </c>
       <c r="AD27">
-        <v>3.09</v>
+        <v>2.08</v>
       </c>
       <c r="AE27">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="AF27">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AG27">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="AH27">
         <v>0</v>
@@ -4329,28 +4329,28 @@
         <v>0</v>
       </c>
       <c r="AJ27">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="AK27">
-        <v>4.55</v>
+        <v>0</v>
       </c>
       <c r="AL27">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AM27">
-        <v>3.18</v>
+        <v>0</v>
       </c>
       <c r="AN27">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="AO27">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AQ27">
-        <v>1.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:43">
@@ -4385,10 +4385,10 @@
         <v>2</v>
       </c>
       <c r="K28">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L28">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M28">
         <v>1.48</v>
@@ -4412,7 +4412,7 @@
         <v>2.3</v>
       </c>
       <c r="T28">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="U28">
         <v>2.1</v>
@@ -4445,13 +4445,13 @@
         <v>0</v>
       </c>
       <c r="AE28">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AF28">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG28">
-        <v>2.33</v>
+        <v>2.71</v>
       </c>
       <c r="AH28">
         <v>1.2</v>
@@ -4513,13 +4513,13 @@
         <v>8</v>
       </c>
       <c r="J29">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="K29">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="L29">
-        <v>8</v>
+        <v>7.15</v>
       </c>
       <c r="M29">
         <v>1.4</v>
@@ -4540,10 +4540,10 @@
         <v>3.2</v>
       </c>
       <c r="S29">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T29">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="U29">
         <v>2.25</v>
@@ -4644,13 +4644,13 @@
         <v>3.4</v>
       </c>
       <c r="J30">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="L30">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="M30">
         <v>1.57</v>
@@ -4665,22 +4665,22 @@
         <v>6.6</v>
       </c>
       <c r="Q30">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="R30">
-        <v>2.48</v>
+        <v>2.38</v>
       </c>
       <c r="S30">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="T30">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="U30">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V30">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W30">
         <v>1.53</v>
@@ -4707,13 +4707,13 @@
         <v>3.17</v>
       </c>
       <c r="AE30">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="AF30">
-        <v>8.5</v>
+        <v>7.4</v>
       </c>
       <c r="AG30">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AH30">
         <v>1.18</v>
@@ -4766,22 +4766,22 @@
         <v>143</v>
       </c>
       <c r="G31">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H31">
         <v>2.2</v>
       </c>
       <c r="I31">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J31">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="K31">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L31">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="M31">
         <v>1.4</v>
@@ -4790,37 +4790,37 @@
         <v>2.75</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="S31">
         <v>1.95</v>
       </c>
       <c r="T31">
+        <v>1.85</v>
+      </c>
+      <c r="U31">
         <v>1.8</v>
       </c>
-      <c r="U31">
-        <v>1.83</v>
-      </c>
       <c r="V31">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="X31">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="Z31">
         <v>1.79</v>
@@ -4838,43 +4838,43 @@
         <v>2.61</v>
       </c>
       <c r="AE31">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF31">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG31">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="AH31">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AI31">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AJ31">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AK31">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AL31">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AM31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN31">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AO31">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AP31">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AQ31">
-        <v>0</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="32" spans="1:43">
@@ -4906,13 +4906,13 @@
         <v>4</v>
       </c>
       <c r="J32">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="K32">
         <v>3.4</v>
       </c>
       <c r="L32">
-        <v>3.6</v>
+        <v>2.69</v>
       </c>
       <c r="M32">
         <v>1.4</v>
@@ -4933,10 +4933,10 @@
         <v>3.5</v>
       </c>
       <c r="S32">
-        <v>1.8</v>
+        <v>1.97</v>
       </c>
       <c r="T32">
-        <v>1.9</v>
+        <v>1.69</v>
       </c>
       <c r="U32">
         <v>1.73</v>
